--- a/DatosExperimento1/UGR/Exp1_Observadores_UGR.xlsx
+++ b/DatosExperimento1/UGR/Exp1_Observadores_UGR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\luismi\workspace\jupyter\TFM\DatosExperimento1\UGR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luismi\tfm-noise-detection\DatosExperimento1\UGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD1494F-0D05-4EA3-9257-06A245EFC722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9553D537-7D83-4D4D-8EC6-053FC34F8B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="2790" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="188">
   <si>
     <t>Nombre</t>
   </si>
@@ -54,42 +54,12 @@
     <t>Fichero</t>
   </si>
   <si>
-    <t xml:space="preserve">Jose Luis </t>
-  </si>
-  <si>
-    <t>Galindo Angel</t>
-  </si>
-  <si>
     <t>Hombre</t>
   </si>
   <si>
-    <t>Ana Belén</t>
-  </si>
-  <si>
-    <t>López Baldomero</t>
-  </si>
-  <si>
     <t>Mujer</t>
   </si>
   <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Tejada</t>
-  </si>
-  <si>
-    <t>Javier</t>
-  </si>
-  <si>
-    <t>Ruiz López</t>
-  </si>
-  <si>
-    <t>PILAR</t>
-  </si>
-  <si>
-    <t>GRANADOS DELGADO</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20211217T115223.mat</t>
   </si>
   <si>
@@ -114,33 +84,15 @@
     <t>ResultsJNDsNoiseFlatBG20220121T112811.mat</t>
   </si>
   <si>
-    <t>Rubén</t>
-  </si>
-  <si>
-    <t>Molina Romero</t>
-  </si>
-  <si>
-    <t>Madrid Fernández</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220121T133331.mat</t>
   </si>
   <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruben </t>
-  </si>
-  <si>
     <t>27-Jan-2022 14:10:19</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220127T141004.mat</t>
   </si>
   <si>
-    <t>Madrid Fernandez</t>
-  </si>
-  <si>
     <t>27-Jan-2022 14:58:42</t>
   </si>
   <si>
@@ -159,33 +111,15 @@
     <t>ResultsJNDsNoiseFlatBG20220128T130104.mat</t>
   </si>
   <si>
-    <t>Sonia</t>
-  </si>
-  <si>
-    <t>Ortiz Peregrina</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220201T111133.mat</t>
   </si>
   <si>
-    <t>Miriam</t>
-  </si>
-  <si>
-    <t>Casares López</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220201T134054.mat</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220202T105219.mat</t>
   </si>
   <si>
-    <t>Ramón</t>
-  </si>
-  <si>
-    <t>Fernández Gualda</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220202T113037.mat</t>
   </si>
   <si>
@@ -195,33 +129,15 @@
     <t>ResultsJNDsNoiseFlatBG20220202T134220.mat</t>
   </si>
   <si>
-    <t>Miguel Angel</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220202T174903.mat</t>
   </si>
   <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>GALINDO ANGEL</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220204T112945.mat</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220204T123031.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">Beatriz </t>
-  </si>
-  <si>
-    <t>Esteban Molina</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220204T134543.mat</t>
   </si>
   <si>
@@ -231,45 +147,21 @@
     <t>ResultsJNDsNoiseFlatBG20220208T122326.mat</t>
   </si>
   <si>
-    <t>Valero</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220209T104348.mat</t>
   </si>
   <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>ESTEBAN MOLINA</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220209T132743.mat</t>
   </si>
   <si>
-    <t>Serramito Blanco</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220211T125927.mat</t>
   </si>
   <si>
-    <t>Maria Jose</t>
-  </si>
-  <si>
-    <t>Rivas</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220216T114246.mat</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220223T104302.mat</t>
   </si>
   <si>
-    <t>Cristina</t>
-  </si>
-  <si>
-    <t>Espinar Pulgar</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220223T112641.mat</t>
   </si>
   <si>
@@ -279,108 +171,42 @@
     <t>ResultsJNDsNoiseFlatBG20220301T101810.mat</t>
   </si>
   <si>
-    <t>Maria del Mar</t>
-  </si>
-  <si>
-    <t>Lazaro</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220302T112937.mat</t>
   </si>
   <si>
-    <t>Maximilian</t>
-  </si>
-  <si>
-    <t>Czech</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220303T125835.mat</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220304T105123.mat</t>
   </si>
   <si>
-    <t>Eva</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220308T111929.mat</t>
   </si>
   <si>
-    <t>Adela</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220314T113216.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">Lucía </t>
-  </si>
-  <si>
-    <t>Zapata Echevarne</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220317T095724.mat</t>
   </si>
   <si>
-    <t>Víctor</t>
-  </si>
-  <si>
-    <t>Calleja Rodríguez</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220317T113653.mat</t>
   </si>
   <si>
-    <t>Ana Isabel</t>
-  </si>
-  <si>
-    <t>Romero Cabrera</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220317T132259.mat</t>
   </si>
   <si>
-    <t>Austin</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220318T133520.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">Adela </t>
-  </si>
-  <si>
-    <t>Collado Rodríguez</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220323T132705.mat</t>
   </si>
   <si>
-    <t>pedro</t>
-  </si>
-  <si>
-    <t>machado  marcos</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220328T140217.mat</t>
   </si>
   <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>MACHADO MARCOS</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220330T140514.mat</t>
   </si>
   <si>
-    <t>María</t>
-  </si>
-  <si>
-    <t>Jiménez Molina</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220331T123440.mat</t>
   </si>
   <si>
@@ -390,33 +216,18 @@
     <t>ResultsJNDsNoiseFlatBG20220401T121203.mat</t>
   </si>
   <si>
-    <t>marcos</t>
-  </si>
-  <si>
-    <t>algaba mesa</t>
-  </si>
-  <si>
     <t>01-Apr-2022 13:14:47</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220401T131441.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">mercedes </t>
-  </si>
-  <si>
-    <t>parody guzmán</t>
-  </si>
-  <si>
     <t>01-Apr-2022 13:47:26</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220401T134721.mat</t>
   </si>
   <si>
-    <t>Hernández Andrés</t>
-  </si>
-  <si>
     <t>05-Apr-2022 10:08:49</t>
   </si>
   <si>
@@ -429,33 +240,18 @@
     <t>ResultsJNDsNoiseFlatBG20220405T122450.mat</t>
   </si>
   <si>
-    <t>Mercedes</t>
-  </si>
-  <si>
-    <t>Parody Guzmán</t>
-  </si>
-  <si>
     <t>05-Apr-2022 13:21:18</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220405T132104.mat</t>
   </si>
   <si>
-    <t>Jesús</t>
-  </si>
-  <si>
-    <t>García Sánchez</t>
-  </si>
-  <si>
     <t>06-Apr-2022 12:39:10</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220406T123850.mat</t>
   </si>
   <si>
-    <t>Lucía</t>
-  </si>
-  <si>
     <t>07-Apr-2022 10:29:29</t>
   </si>
   <si>
@@ -474,33 +270,18 @@
     <t>ResultsJNDsNoiseFlatBG20220407T125413.mat</t>
   </si>
   <si>
-    <t>José Juan</t>
-  </si>
-  <si>
-    <t>Castro Torres</t>
-  </si>
-  <si>
     <t>08-Apr-2022 10:34:11</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220408T103353.mat</t>
   </si>
   <si>
-    <t>Miguel</t>
-  </si>
-  <si>
-    <t>Escaño Huertas</t>
-  </si>
-  <si>
     <t>11-Apr-2022 19:40:02</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220411T193944.mat</t>
   </si>
   <si>
-    <t>Gutierrez Huertas</t>
-  </si>
-  <si>
     <t>11-Apr-2022 20:21:23</t>
   </si>
   <si>
@@ -519,12 +300,6 @@
     <t>ResultsJNDsNoiseFlatBG20220420T172846.mat</t>
   </si>
   <si>
-    <t>Maitena</t>
-  </si>
-  <si>
-    <t>Rosa Fiedler</t>
-  </si>
-  <si>
     <t>20-Apr-2022 17:54:10</t>
   </si>
   <si>
@@ -543,30 +318,18 @@
     <t>ResultsJNDsNoiseFlatBG20220421T180502.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">Javier </t>
-  </si>
-  <si>
-    <t>Hernandez Andres</t>
-  </si>
-  <si>
     <t>22-Apr-2022 11:18:58</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220422T111834.mat</t>
   </si>
   <si>
-    <t>Pablo</t>
-  </si>
-  <si>
     <t>22-Apr-2022 12:48:28</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220422T124814.mat</t>
   </si>
   <si>
-    <t>Olivares</t>
-  </si>
-  <si>
     <t>25-Apr-2022 17:27:37</t>
   </si>
   <si>
@@ -585,36 +348,18 @@
     <t>ResultsJNDsNoiseFlatBG20220426T124527.mat</t>
   </si>
   <si>
-    <t>JOSE JUAN</t>
-  </si>
-  <si>
-    <t>CASTRO TORRES</t>
-  </si>
-  <si>
     <t>27-Apr-2022 11:46:58</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220427T114635.mat</t>
   </si>
   <si>
-    <t>maitena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosa fiedler </t>
-  </si>
-  <si>
     <t>27-Apr-2022 18:41:27</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220427T184121.mat</t>
   </si>
   <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>Yebra</t>
-  </si>
-  <si>
     <t>28-Apr-2022 13:25:38</t>
   </si>
   <si>
@@ -624,14 +369,233 @@
     <t>ResultsJNDsNoiseFlatBG20220121T122318.mat</t>
   </si>
   <si>
-    <t>Yolanda</t>
+    <t>voluntario_ugr_1</t>
+  </si>
+  <si>
+    <t>_1</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_2</t>
+  </si>
+  <si>
+    <t>_2</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_3</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_4</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_5</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_6</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_7</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_8</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_9</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_10</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_11</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_12</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_13</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_14</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_15</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_16</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_17</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_18</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_19</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_20</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_21</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_22</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_23</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_24</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_25</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_26</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_27</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_28</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_29</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_30</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_31</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_32</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_33</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_34</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_35</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_36</t>
+  </si>
+  <si>
+    <t>voluntario_ugr_37</t>
+  </si>
+  <si>
+    <t>_3</t>
+  </si>
+  <si>
+    <t>_4</t>
+  </si>
+  <si>
+    <t>_5</t>
+  </si>
+  <si>
+    <t>_6</t>
+  </si>
+  <si>
+    <t>_7</t>
+  </si>
+  <si>
+    <t>_8</t>
+  </si>
+  <si>
+    <t>_9</t>
+  </si>
+  <si>
+    <t>_10</t>
+  </si>
+  <si>
+    <t>_11</t>
+  </si>
+  <si>
+    <t>_12</t>
+  </si>
+  <si>
+    <t>_13</t>
+  </si>
+  <si>
+    <t>_14</t>
+  </si>
+  <si>
+    <t>_15</t>
+  </si>
+  <si>
+    <t>_16</t>
+  </si>
+  <si>
+    <t>_17</t>
+  </si>
+  <si>
+    <t>_18</t>
+  </si>
+  <si>
+    <t>_19</t>
+  </si>
+  <si>
+    <t>_20</t>
+  </si>
+  <si>
+    <t>_21</t>
+  </si>
+  <si>
+    <t>_22</t>
+  </si>
+  <si>
+    <t>_23</t>
+  </si>
+  <si>
+    <t>_24</t>
+  </si>
+  <si>
+    <t>_25</t>
+  </si>
+  <si>
+    <t>_26</t>
+  </si>
+  <si>
+    <t>_27</t>
+  </si>
+  <si>
+    <t>_28</t>
+  </si>
+  <si>
+    <t>_29</t>
+  </si>
+  <si>
+    <t>_30</t>
+  </si>
+  <si>
+    <t>_31</t>
+  </si>
+  <si>
+    <t>_32</t>
+  </si>
+  <si>
+    <t>_33</t>
+  </si>
+  <si>
+    <t>_34</t>
+  </si>
+  <si>
+    <t>_35</t>
+  </si>
+  <si>
+    <t>_36</t>
+  </si>
+  <si>
+    <t>_37</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,19 +611,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -674,11 +638,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,17 +971,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>121</v>
+      <c r="A2" t="s">
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C2">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -1030,24 +993,24 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C3">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1062,21 +1025,21 @@
         <v>44637.484016203707</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C4">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -1088,24 +1051,24 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="C5">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -1120,21 +1083,21 @@
         <v>44593.570127314815</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1149,21 +1112,21 @@
         <v>44594.534756944442</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C7">
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1175,24 +1138,24 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C8">
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1204,24 +1167,24 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1233,24 +1196,24 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1265,21 +1228,21 @@
         <v>44643.56082175926</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="C11">
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1294,21 +1257,21 @@
         <v>44623.540752314817</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="C12">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1323,21 +1286,21 @@
         <v>44634.480798611112</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>104</v>
+      <c r="A13" t="s">
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C13">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1352,21 +1315,21 @@
         <v>44638.566412037035</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C14">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1378,24 +1341,24 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C15">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1407,24 +1370,24 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="C16">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1439,21 +1402,21 @@
         <v>44615.476921296293</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="C17">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1468,21 +1431,21 @@
         <v>44615.67765046296</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="C18">
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1497,21 +1460,21 @@
         <v>44601.560972222222</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="C19">
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1526,21 +1489,21 @@
         <v>44596.573483796295</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="C20">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1555,21 +1518,21 @@
         <v>44594.47965277778</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="C21">
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1584,21 +1547,21 @@
         <v>44600.516342592593</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="C22">
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1613,21 +1576,21 @@
         <v>44596.479259259257</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="C23">
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1639,24 +1602,24 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="C24">
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1671,21 +1634,21 @@
         <v>44582.564942129633</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="C25">
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1700,21 +1663,21 @@
         <v>44596.521249999998</v>
       </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="C26">
         <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1729,21 +1692,21 @@
         <v>44575.459618055553</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="C27">
         <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1758,21 +1721,21 @@
         <v>44582.445115740738</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C28">
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1784,24 +1747,24 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C29">
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1813,24 +1776,24 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="C30">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1845,21 +1808,21 @@
         <v>44547.494895833333</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="C31">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1874,21 +1837,21 @@
         <v>44575.486678240741</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C32">
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1900,24 +1863,24 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C33">
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1929,24 +1892,24 @@
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="I33" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C34">
         <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1958,24 +1921,24 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="I34" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C35">
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -1987,24 +1950,24 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="I35" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="C36">
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -2016,24 +1979,24 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="I36" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="C37">
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -2048,21 +2011,21 @@
         <v>44651.524270833332</v>
       </c>
       <c r="I37" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -2074,24 +2037,24 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C39">
         <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -2106,21 +2069,21 @@
         <v>44622.47896990741</v>
       </c>
       <c r="I39" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C40">
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -2135,21 +2098,21 @@
         <v>44624.452407407407</v>
       </c>
       <c r="I40" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="C41">
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -2164,21 +2127,21 @@
         <v>44575.501493055555</v>
       </c>
       <c r="I41" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="C42">
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -2190,24 +2153,24 @@
         <v>3</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="C43">
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -2222,21 +2185,21 @@
         <v>44648.585185185184</v>
       </c>
       <c r="I43" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="C44">
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -2251,21 +2214,21 @@
         <v>44650.587199074071</v>
       </c>
       <c r="I44" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="C45">
         <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -2277,24 +2240,24 @@
         <v>3</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="C46">
         <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -2309,21 +2272,21 @@
         <v>44582.516030092593</v>
       </c>
       <c r="I46" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="C47">
         <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -2338,21 +2301,21 @@
         <v>44594.7424537037</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="C48">
         <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
@@ -2367,21 +2330,21 @@
         <v>44599.570219907408</v>
       </c>
       <c r="I48" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="C49">
         <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -2396,21 +2359,21 @@
         <v>44582.477905092594</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="C50">
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
@@ -2422,24 +2385,24 @@
         <v>3</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" t="s">
         <v>176</v>
-      </c>
-      <c r="B51" t="s">
-        <v>179</v>
       </c>
       <c r="C51">
         <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -2451,24 +2414,24 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="I51" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" t="s">
         <v>176</v>
-      </c>
-      <c r="B52" t="s">
-        <v>179</v>
       </c>
       <c r="C52">
         <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -2480,24 +2443,24 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="I52" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="C53">
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -2512,21 +2475,21 @@
         <v>44593.466527777775</v>
       </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="C54">
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -2541,21 +2504,21 @@
         <v>44594.571134259262</v>
       </c>
       <c r="I54" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="C55">
         <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -2567,24 +2530,24 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="I55" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="C56">
         <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -2596,24 +2559,24 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="I56" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="C57">
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
@@ -2628,21 +2591,21 @@
         <v>44608.488240740742</v>
       </c>
       <c r="I57" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="C58">
         <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
@@ -2657,21 +2620,21 @@
         <v>44615.446782407409</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="C59">
         <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
@@ -2686,21 +2649,21 @@
         <v>44621.429456018515</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="C60">
         <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -2715,21 +2678,21 @@
         <v>44637.557696759257</v>
       </c>
       <c r="I60" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="C61">
         <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -2741,24 +2704,24 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C62">
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -2770,24 +2733,24 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="I62" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C63">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -2799,24 +2762,24 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="I63" t="s">
-        <v>193</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="C64">
         <v>28</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -2831,21 +2794,21 @@
         <v>44575.529479166667</v>
       </c>
       <c r="I64" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="C65">
         <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
@@ -2860,21 +2823,21 @@
         <v>44594.453263888892</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="C66">
         <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
@@ -2889,21 +2852,21 @@
         <v>44603.550821759258</v>
       </c>
       <c r="I66" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="C67">
         <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
@@ -2915,24 +2878,24 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="I67" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="C68">
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
@@ -2947,21 +2910,21 @@
         <v>44575.513969907406</v>
       </c>
       <c r="I68" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="C69">
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
@@ -2973,24 +2936,24 @@
         <v>3</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="C70">
         <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
@@ -3005,21 +2968,21 @@
         <v>44628.472175925926</v>
       </c>
       <c r="I70" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="C71">
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
@@ -3034,21 +2997,21 @@
         <v>44601.44740740741</v>
       </c>
       <c r="I71" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>194</v>
+      <c r="A72" t="s">
+        <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C72">
         <v>54</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
@@ -3060,24 +3023,24 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="I72" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="C73">
         <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
@@ -3089,24 +3052,24 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="I73" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="C74">
         <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
@@ -3121,7 +3084,7 @@
         <v>44637.415185185186</v>
       </c>
       <c r="I74" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3130,6 +3093,7 @@
     <sortCondition ref="A2:A75"/>
     <sortCondition ref="F2:F75"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
